--- a/日志.xlsx
+++ b/日志.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,6 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiaoz\Documents\keepMoving\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{F96C7F67-4364-4FA4-AE2F-9E0A222E7651}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7875" xr2:uid="{716877A6-8A55-4F3B-AF15-1C1958F60AE3}"/>
   </bookViews>
@@ -446,7 +447,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -491,7 +492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43179</v>
       </c>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiaoz\Documents\keepMoving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{F96C7F67-4364-4FA4-AE2F-9E0A222E7651}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7875" xr2:uid="{716877A6-8A55-4F3B-AF15-1C1958F60AE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>日期|类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,13 +64,108 @@
   <si>
     <t>dockfile
 dock部署springboot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载均衡设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软硬件设备
+（由公司负责采购）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击高可用数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他可能用到的设备（缓存，文件服务器等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个后台工程师和1个前端工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单项（此费用为包年方式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3万/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发费用
+（预计工期一个月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工期预计1个月，具体情况，视工作量而定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0版本总体预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0版本总体预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防火墙等安全设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发费用
+（预计工期两个月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工期预计2个月，具体情况，视工作量而定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N个后台工程师和1个前端工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部专家咨询费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N万元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -129,6 +223,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,11 +552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6928B749-2DDE-4716-8585-F116015E45AB}">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,9 +565,14 @@
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="11" max="12" width="19.25" customWidth="1"/>
+    <col min="13" max="13" width="29.25" customWidth="1"/>
+    <col min="14" max="14" width="24.375" customWidth="1"/>
+    <col min="15" max="15" width="24.625" customWidth="1"/>
+    <col min="16" max="16" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -481,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43178</v>
       </c>
@@ -492,7 +606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43179</v>
       </c>
@@ -500,137 +614,329 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43180</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43181</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43182</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="6">
+        <v>86000</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43183</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K7" s="7"/>
+      <c r="L7" s="6"/>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43184</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K8" s="7"/>
+      <c r="L8" s="6"/>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43185</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K9" s="7"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43186</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43187</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43188</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43189</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43190</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43191</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43192</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43193</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43194</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="K18" s="7"/>
+      <c r="L18" s="6"/>
+      <c r="M18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="6"/>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>43195</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="K20" s="7"/>
+      <c r="L20" s="6"/>
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>43196</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="K21" s="7"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>43197</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="K22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>43198</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>43199</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>43200</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>43201</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>43202</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>43203</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>43204</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>43205</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K17:K21"/>
+    <mergeCell ref="L17:L21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
